--- a/diccionario_datos_covid19/Descriptores.xlsx
+++ b/diccionario_datos_covid19/Descriptores.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5424e8ce283081d5/Desktop/DATOS COVID19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dwight Dyer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D1A58D1A-218E-425B-9173-4E70978B51BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B6EEFC70-8A10-4658-B2F1-D06A2B48BB26}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8079489-F2B6-4029-AAD2-F68B4C8E907F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{C2787445-C159-4609-86A2-1BD176FA7828}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
   <si>
     <t>Nº</t>
   </si>
@@ -249,15 +243,6 @@
     <t>Identifica si el paciente tuvo contacto con algún otro caso diagnósticado con SARS CoV-2</t>
   </si>
   <si>
-    <t>RESULTADO</t>
-  </si>
-  <si>
-    <t>Identifica el resultado del análisis de la muestra reportado por el  laboratorio de la Red Nacional de Laboratorios de Vigilancia Epidemiológica (INDRE, LESP y LAVE). (Catálogo de resultados diagnósticos anexo).</t>
-  </si>
-  <si>
-    <t>CATÁLOGO: RESULTADO</t>
-  </si>
-  <si>
     <t>MIGRANTE</t>
   </si>
   <si>
@@ -295,6 +280,54 @@
   </si>
   <si>
     <t>ID_REGISTRO</t>
+  </si>
+  <si>
+    <t>CATÁLOGO: SI_ NO</t>
+  </si>
+  <si>
+    <t>CLASIFICACION_FINAL</t>
+  </si>
+  <si>
+    <t>RESULTADO_LAB</t>
+  </si>
+  <si>
+    <t>CATÁLOGO: CLASIFICACION_FINAL</t>
+  </si>
+  <si>
+    <t>Identifica si el paciente es un caso de COVID-19 según el catálogo "CLASIFICACION_FINAL".</t>
+  </si>
+  <si>
+    <t>INDIGENA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifica si el paciente se autoidentifica como una persona indígena. </t>
+  </si>
+  <si>
+    <t>Identifica el resultado del análisis de la muestra reportado por el  laboratorio de la Red Nacional de Laboratorios de Vigilancia Epidemiológica (INDRE, LESP y LAVE) y laboratorios privados avalados por el InDRE cuyos resultados son registrados en SISVER. (Catálogo de resultados diagnósticos anexo).</t>
+  </si>
+  <si>
+    <t>CATÁLOGO: RESULTADO_LAB</t>
+  </si>
+  <si>
+    <t>Identifica si al paciente se le tomó muestra de laboratorio.</t>
+  </si>
+  <si>
+    <t>TOMA_MUESTRA_LAB</t>
+  </si>
+  <si>
+    <t>TOMA_MUESTRA_ANTIGENO</t>
+  </si>
+  <si>
+    <t>RESULTADO_ANTIGENO</t>
+  </si>
+  <si>
+    <t>Identifica el resultado del análisis de la muestra de antígeno tomada al paciente</t>
+  </si>
+  <si>
+    <t>CATÁLOGO: RESULTADO_ANTIGENO</t>
+  </si>
+  <si>
+    <t>Identifica si al paciente se le tomó muestra de antígeno para SARS-CoV-2</t>
   </si>
 </sst>
 </file>
@@ -392,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -415,6 +448,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,11 +771,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEB99F8-EF2B-4228-8C00-AA8C0A80CA6B}">
-  <dimension ref="A1:D40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,13 +820,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1026,16 +1068,16 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="B21" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1044,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>37</v>
@@ -1058,10 +1100,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>37</v>
@@ -1072,10 +1114,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>37</v>
@@ -1086,10 +1128,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>37</v>
@@ -1100,10 +1142,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>37</v>
@@ -1114,10 +1156,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>37</v>
@@ -1128,10 +1170,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>37</v>
@@ -1142,10 +1184,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>37</v>
@@ -1156,10 +1198,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>37</v>
@@ -1170,10 +1212,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>37</v>
@@ -1184,41 +1226,41 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>37</v>
+        <v>95</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>83</v>
+      <c r="B34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -1226,13 +1268,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -1240,40 +1282,111 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="7"/>
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="7"/>
-      <c r="D38"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="7"/>
-      <c r="D39"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="7"/>
-      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="7"/>
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="7"/>
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="7"/>
+      <c r="D45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>